--- a/Implementierung & Dokumentation/vorläufige_Dokumentation.xlsx
+++ b/Implementierung & Dokumentation/vorläufige_Dokumentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\4. Semester\Softwareprojekt\Implementierung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\paul\swp2023-thema14\Implementierung &amp; Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{539CB439-F353-418B-AEE1-E263EE78DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3746479C-7E8A-4807-A354-82673D4E42E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{ACB82180-0B53-49D2-85E7-E7765418107F}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Commit ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Wurden die Fehler behoben, wenn ja wie?</t>
   </si>
   <si>
     <r>
-      <t>ergänzende Erläuterung zum Commit</t>
+      <t>Commit ID</t>
     </r>
     <r>
       <rPr>
@@ -52,21 +52,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Was, Warum, Wie wurde etwas gemacht?)</t>
+      <t xml:space="preserve"> (in Zusammenhang mit Fehler)</t>
     </r>
   </si>
   <si>
-    <t>Sind dabei spezielle Probleme oder Fehler aufgetreten ? Wie wurden Sie bemerkt?</t>
-  </si>
-  <si>
-    <t>Wurden die Fehler behoben, wenn ja wie?</t>
+    <r>
+      <t>ergänzende Erläuterung zum Fehler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Welche Probleme liegen vor?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bei mehreren Teammitgliedern ließ sich über mehrere Tage der Webserver nicht mehr starten. Somit war kein Zugriff auf das System möglich.</t>
+  </si>
+  <si>
+    <t>Fehlermeldungen? Spezielle Fehlerklassen?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beispielhafte Fehlermeldung beim Serverstart Windows (wsl, Ubuntu Konsole):
+paul@Рс-Paul:~/swp2023-thema14/codeocean$ varn run webpack-dev-server yarn run vl.22.19
+$
+/bin/webpacker-dev-server
+/bin/sh: 1: /bin/mebpacker-dev-server: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Permission denied error Command failed with exit code 126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> info Visit https://yarnpkg.com/en/docs/cli/run for documentation, about this command pauL@Pc--Paul:~/sup2023-thema14/codeocean$</t>
+    </r>
+  </si>
+  <si>
+    <t>Entfernen des fehlerhaften .yarn-integrity files im Reposetory.</t>
+  </si>
+  <si>
+    <t>Python Aufgabe "WIDIG01_Hangman", welche examplarisch in die lokale CodeOcean Version des Projektes eingebunden wurde, hat keine Fehlermeldungen angezeigt und konnte beispielweise einen input Befehl nicht ausführen.</t>
+  </si>
+  <si>
+    <t>konkretes Problem wurde nicht gelöst. Die geplanten vorhaben werden mit einer anderen Aufgabe umgesetzt.</t>
+  </si>
+  <si>
+    <t>Die Java Aufgabe "Math" konnte nicht ausgeführt werden. (Hat bspw. Nicht compiliert)</t>
+  </si>
+  <si>
+    <t>Hier können wir Screenshots aus den Mails nutzen</t>
+  </si>
+  <si>
+    <t>1. Nach Nomad Start zusätzlich immer "curl -X POST -d '{"SchedulerAlgorithm": "spread", "MemoryOversubscriptionEnabled":
+true}' http://localhost:4646/v1/operator/scheduler/configuration" ausführen (in Installationsanleitung für Windows übernommen)                                                                               2. make file anpassen: run:
+    javac org/example/RecursiveMath.java
+    java org/example/RecursiveMath
+test:
+    javac -cp .:/usr/java/lib/hamcrest-core-1.3.jar:/usr/java/lib/junit-4.13.jar ${FILENAME}
+    java -cp .:/usr/java/lib/hamcrest-core-1.3.jar:/usr/java/lib/junit-4.13.jar org.junit.runner.JUnitCore org.example.${CLASS_NAME}                                                                    3. Anpassungen in Entwicklungsumgebung: Ausführungsumgebung "Java8":
+- Ausführungsbefehl: 
+make run CLASS_NAME="%{class_name}" FILENAME="%{filename}"
+- Testbefehl:
+make test CLASS_NAME="%{class_name}" FILENAME="%{filename}"                                                        4. alle Entwicklungsumgebungen aktualisieren</t>
+  </si>
+  <si>
+    <t>Webserver konnte nicht gestartet werden</t>
+  </si>
+  <si>
+    <t>Änderung des Speicherortes eines falsch gespeicherten Pdf-Files</t>
+  </si>
+  <si>
+    <t>Eingabefelder bei "Aufgabe bearbeiten" werden nicht mehr angezeigt</t>
+  </si>
+  <si>
+    <t>Aufgaben konnten nicht bearbeitet werden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +163,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -244,6 +336,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,65 +657,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F730A6-8CE0-46BE-9FA5-EA3F5398E817}">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.06640625" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.265625" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" customWidth="1"/>
+    <col min="4" max="4" width="76.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="53.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
